--- a/FIN-6322/Chapter 10/Problem10-9_g.xlsx
+++ b/FIN-6322/Chapter 10/Problem10-9_g.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gad075000\Documents\_UTD\Courses\FIN6322 -19S\Selected Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twodegrees1-my.sharepoint.com/personal/rahul_kotian_slalom_com/Documents/Documents/Personal/UTD/Summer - 24/FIN-6322/Chapter 10/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3284DB59F704D6810B74AD1B035730E80A030F19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E60E33-C325-4E59-B7AC-EBD306A40BAB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19155" windowHeight="11760"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -227,7 +241,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -379,7 +393,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -393,14 +407,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -412,8 +424,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -448,9 +459,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,9 +499,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,7 +571,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,22 +744,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -756,125 +767,124 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="23">
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>0.09</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="28">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="31">
         <f>C4</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="32">
         <f>C11</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -886,7 +896,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -898,20 +908,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="31">
         <f>C12</f>
         <v>20</v>
       </c>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>10</v>
       </c>
@@ -931,20 +941,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="33">
         <f>C13</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="30">
         <f>C27/12</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -952,10 +962,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -967,42 +977,42 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26">
         <f>-PV(C27,C25,C20)</f>
         <v>1064195.4649698206</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="34">
         <f>C12-C5</f>
         <v>15</v>
       </c>
@@ -1010,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -1022,46 +1032,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <f>PV(C27/12,C37,-C22)</f>
         <v>969348.32107285911</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="35">
         <f>C6</f>
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="35">
         <f>C7</f>
         <v>0.09</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1091,11 +1101,11 @@
       <c r="H47" s="11">
         <v>5</v>
       </c>
-      <c r="I47" s="29">
+      <c r="I47" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -1124,38 +1134,38 @@
         <v>173891.11114500003</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <f>-$C$20</f>
         <v>-125000</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <f t="shared" ref="E51:H51" si="1">-$C$20</f>
         <v>-125000</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <f t="shared" si="1"/>
         <v>-125000</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <f t="shared" si="1"/>
         <v>-125000</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <f t="shared" si="1"/>
         <v>-125000</v>
       </c>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>1932123.4571666671</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1172,12 +1182,12 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="16">
+      <c r="H54" s="15">
         <f>-C39</f>
         <v>-969348.32107285911</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="22.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="22" x14ac:dyDescent="0.5">
       <c r="A56" s="10" t="s">
         <v>53</v>
       </c>
@@ -1202,14 +1212,14 @@
         <v>1006601.4575938081</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>43</v>
       </c>
@@ -1219,72 +1229,72 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="22">
         <v>0.12</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <f>NPV(C60,D56:H56)</f>
         <v>666035.37145106529</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <f>C30</f>
         <v>1079423.1113715374</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="19">
+      <c r="C67" s="18">
         <f>C62</f>
         <v>666035.37145106529</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <f>SUM(C66:C67)</f>
         <v>1745458.4828226026</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -1293,20 +1303,20 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <f>C68</f>
         <v>1745458.4828226026</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="21">
+      <c r="C74" s="19">
         <f>C72/C73</f>
         <v>8.5937306144018469E-2</v>
       </c>
